--- a/election_votar_data/SATKANIA/MADARSA/152450/152450_com_733_female_without_photo_42_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/MADARSA/152450/152450_com_733_female_without_photo_42_2025-11-24.xlsx
@@ -24206,7 +24206,11 @@
           <t>হাজী ইব্রাহিম</t>
         </is>
       </c>
-      <c r="E566" s="4" t="inlineStr"/>
+      <c r="E566" s="4" t="inlineStr">
+        <is>
+          <t>গোলতাজ বেগম</t>
+        </is>
+      </c>
       <c r="F566" s="3" t="inlineStr">
         <is>
           <t>গৃহিনী</t>

--- a/election_votar_data/SATKANIA/MADARSA/152450/152450_com_733_female_without_photo_42_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/MADARSA/152450/152450_com_733_female_without_photo_42_2025-11-24.xlsx
@@ -24206,11 +24206,7 @@
           <t>হাজী ইব্রাহিম</t>
         </is>
       </c>
-      <c r="E566" s="4" t="inlineStr">
-        <is>
-          <t>গোলতাজ বেগম</t>
-        </is>
-      </c>
+      <c r="E566" s="4" t="inlineStr"/>
       <c r="F566" s="3" t="inlineStr">
         <is>
           <t>গৃহিনী</t>
